--- a/biology/Botanique/Equisetidae/Equisetidae.xlsx
+++ b/biology/Botanique/Equisetidae/Equisetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Equisetophyta, Equisetopsida, Sphenophyta · Prêles
 Les Équisétophytes (Equisetophyta), ou Sphénophytes (Sphenophyta), sont le groupe de plantes ptéridophytes comprenant l'ensemble des prêles. Elles constituent dans les nouvelles classifications la sous-classe des Équisétidées (Equisetidae).
@@ -513,25 +525,96 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification phylogénétique (basée, entre autres, sur les caractères génétiques), ce taxon monophylétique, bien que toujours classé comme sous-clade dans le super-clade des Chlorobiontes lato sensu ou « plantes vertes » (Viridiplantae), ne fait plus partie du clade des Trachéobiontes stricto sensu (végétaux vasculaires) mais du clade supérieur où il est classé : les Embryophytes Stomatophytes Polysporangiées Euphyllophytes Moniliformes dans le clade des Sphénophytes (Sphenophyta, qui comprend aussi d’autres genres comme Spaciinodum collinsonii, une espèce rare conservée du Trias de l’Antarctique, et d'autres ordres éteints comme l’espèce Sphenophyllum obovatum du Permien au Kansas, États-Unis). Le caractère vasculaire du végétal n’est donc plus pertinent pour la classification de ce taxon.
 En classification taxinomique actuelle, elles forment donc maintenant un embranchement à part entière, séparé même des autres fougères lato sensu (Pteridophyta), mais encore classé directement comme division dans le règne végétal (Plantae). Les fougères stricto sensu sont les autres Polysporangiées Euphyllophytes non Moniliformes (Filicopsida), elles aussi déplacées dans les classifications phylogénétiques et phénétiques actuelles.
 Cependant certaines sources de taxinomie moderne indiquent encore que l’embranchement fait partie du sous-règne des Tracheobionta (bien que ce sous-règne ainsi défini sur le caractère morphologique vasculaire soit alors paraphylétique).
-Genre actuel
-Classification du seul genre actuel selon ITIS[2] et le Pteridophytes Phylogeny Group (2016)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Equisetidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genre actuel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Classification du seul genre actuel selon ITIS et le Pteridophytes Phylogeny Group (2016) :
 ordre Equisetales DC. ex Bercht. &amp; J.Presl, 1820 :
 famille Equisetaceae Michx. ex DC., 1804 :
-Equisetum L., 1753.
-Taxons fossiles
-Classification traditionnelle présentant des taxons paraphylétiques, selon Taylor, T.N. &amp; Taylor, E.L. (1993)[4]. :
+Equisetum L., 1753.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Equisetidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classification traditionnelle présentant des taxons paraphylétiques, selon Taylor, T.N. &amp; Taylor, E.L. (1993). :
 ordre Equisetales :
 † Calamitaceae Unger *
 † Tchernoviaceae S.V. Meyen *
 † Gondwanostachyaceae S.V. Meyen *
 ordre † Pseudoborniales Nathorst. *
 ordre † Sphenophyllales Seward. *
-Liste complète des genres dans une nouvelle classification selon Novikov &amp; Barabasz-Krasny (2015)[5] :
+Liste complète des genres dans une nouvelle classification selon Novikov &amp; Barabasz-Krasny (2015) :
 Ordre Equisetales DC. ex Bercht.
 † Famille Autophyllitaceae Nakai
 † Autophyllites Grand’Eury
@@ -589,37 +672,74 @@
 † Famille Hyeniaceae Hirmer in Wettst. (incl. les † Calamophytaceae Kräusel et Weyl. (≡ † Protohyeniaceae Nakai))
 † Calamophyton Kräusel et Weyl.
 † Hyenia Kräusel et Weyl.
-Phylogénie
-Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[6] :
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Equisetidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Equisetidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Equisetidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La forte teneur en silice des tiges de prêle est connue depuis longtemps, des artisans l'utilisent pour des travaux de ponçage et d'affûtage. 
 </t>
